--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3892388.312061814</v>
+        <v>3890011.685114447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>47.86369575708849</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.50144020605998</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.6532283794924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>33.9341985706763</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.2492457189759</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>41.00930247648498</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>225.1865238539266</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.1646303737825</v>
       </c>
       <c r="H10" t="n">
-        <v>51.92096917925152</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>118.4312223122548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656051</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23.62554568141315</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>108.9065924712593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877865</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>104.8913819999787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569.389772330099</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.427255389687</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>1200.427255389687</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>814.6390027914429</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6530980018353</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1955.989612394221</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1955.989612394221</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.2468199959889</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>898.2468199959889</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>748.1301805836531</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>600.21708700126</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>453.3271395033496</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>285.3406748116282</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6017766751344</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>848.1875530107168</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C5" t="n">
-        <v>848.1875530107168</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="D5" t="n">
-        <v>489.9218544039663</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="E5" t="n">
-        <v>104.133601805722</v>
+        <v>479.0728741272044</v>
       </c>
       <c r="F5" t="n">
-        <v>97.18810105651856</v>
+        <v>472.127373378001</v>
       </c>
       <c r="G5" t="n">
-        <v>85.5237548212115</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>85.5237548212115</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4607,10 +4607,10 @@
         <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074839</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>359.629293016243</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>359.629293016243</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>209.5126536039072</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>541.2777578464827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>890.9810522552812</v>
+        <v>904.8820361188227</v>
       </c>
       <c r="C8" t="n">
-        <v>522.0185353148695</v>
+        <v>535.9195191784111</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>177.6538205716606</v>
       </c>
       <c r="E8" t="n">
         <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2334.878193194168</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.815305850597</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1651.046650580483</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.580892319403</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1277.580892319403</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>101.9181303799046</v>
       </c>
       <c r="C10" t="n">
-        <v>716.5983551657491</v>
+        <v>101.9181303799046</v>
       </c>
       <c r="D10" t="n">
-        <v>566.4817157534134</v>
+        <v>101.9181303799046</v>
       </c>
       <c r="E10" t="n">
-        <v>418.5686221710203</v>
+        <v>101.9181303799046</v>
       </c>
       <c r="F10" t="n">
-        <v>271.6786746731099</v>
+        <v>101.9181303799046</v>
       </c>
       <c r="G10" t="n">
-        <v>103.6922099813885</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>504.3591743536745</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>283.5665952101443</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280861</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570412</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048583</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>594.8179559048583</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,25 +6926,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,13 +7309,13 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>240.4465442417437</v>
+        <v>70.03064962107908</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883066534</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.00274033431434</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>36.51445555167193</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>43.72409101823369</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098779</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631638.0544098779</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631638.0544098779</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098779</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
@@ -26332,28 +26332,28 @@
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.392274164540519e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7.723256517081231e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,37 +26424,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707303</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707483</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707383</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707366</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707341</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707321</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707335</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707343</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297128</v>
+        <v>-539083.5572297133</v>
       </c>
       <c r="C6" t="n">
         <v>575668.2263462066</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.226346207</v>
+        <v>575668.2263462069</v>
       </c>
       <c r="E6" t="n">
-        <v>171462.5387525947</v>
+        <v>171427.8008271594</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.9803771415</v>
+        <v>678913.2424517061</v>
       </c>
       <c r="G6" t="n">
-        <v>678947.980377141</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="H6" t="n">
-        <v>678947.9803771413</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="I6" t="n">
-        <v>678947.9803771417</v>
+        <v>678913.2424517054</v>
       </c>
       <c r="J6" t="n">
-        <v>511342.8025671587</v>
+        <v>511308.0646417231</v>
       </c>
       <c r="K6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517053</v>
       </c>
       <c r="L6" t="n">
-        <v>678947.9803771412</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="M6" t="n">
-        <v>546340.6866482145</v>
+        <v>546305.9487227787</v>
       </c>
       <c r="N6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="O6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517053</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,14 +26972,14 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>363.6840070158655</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>20.2951549978406</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934616</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.77571410179419</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492468</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>340.9210675957768</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>25.85872627453543</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.1419696710217</v>
       </c>
       <c r="H10" t="n">
-        <v>95.33053997587734</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.604658557802081e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>441.029269365552</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068259</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795938</v>
+        <v>367.7110102589293</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844296</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>302.4748895856778</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324669</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
